--- a/ConsolidationOutputFolder/Consolidated_individual_performance_heatmap.xlsx
+++ b/ConsolidationOutputFolder/Consolidated_individual_performance_heatmap.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Do not edit</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -4620,37 +4620,37 @@
         <v>365</v>
       </c>
       <c r="F74" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G74" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H74" t="n">
         <v>65</v>
       </c>
       <c r="I74" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J74" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K74" t="n">
         <v>73</v>
       </c>
       <c r="L74" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O74" t="n">
         <v>20</v>
       </c>
       <c r="P74" t="n">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4688,37 +4688,37 @@
         <v>360</v>
       </c>
       <c r="F75" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G75" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H75" t="n">
         <v>63</v>
       </c>
       <c r="I75" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J75" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K75" t="n">
         <v>51</v>
       </c>
       <c r="L75" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O75" t="n">
         <v>18</v>
       </c>
       <c r="P75" t="n">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -5456,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>9</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5480,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -5538,13 +5538,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -5913,28 +5913,28 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="n">
-        <v>9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -5980,19 +5980,19 @@
         <v>9</v>
       </c>
       <c r="J95" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G105" t="n">
         <v>16</v>
@@ -6624,7 +6624,7 @@
         <v>126</v>
       </c>
       <c r="J105" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K105" t="n">
         <v>22</v>
@@ -6636,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O105" t="n">
         <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7404,13 +7404,13 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -8794,37 +8794,37 @@
         <v>343939.54</v>
       </c>
       <c r="F139" t="n">
-        <v>462751.15</v>
+        <v>464231.15</v>
       </c>
       <c r="G139" t="n">
-        <v>269674.01</v>
+        <v>273499.01</v>
       </c>
       <c r="H139" t="n">
         <v>65827.06</v>
       </c>
       <c r="I139" t="n">
-        <v>267212.0866666667</v>
+        <v>264426.0866666667</v>
       </c>
       <c r="J139" t="n">
-        <v>391397.3366666667</v>
+        <v>389731.9266666667</v>
       </c>
       <c r="K139" t="n">
         <v>67902.47</v>
       </c>
       <c r="L139" t="n">
-        <v>52362.5</v>
+        <v>49082.5</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>30934.38</v>
+        <v>39760.79</v>
       </c>
       <c r="O139" t="n">
         <v>32776</v>
       </c>
       <c r="P139" t="n">
-        <v>1997198.643333333</v>
+        <v>2003598.643333334</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr">
@@ -8844,37 +8844,37 @@
         <v>46115.0047597978</v>
       </c>
       <c r="V139" t="n">
-        <v>62045.12422401887</v>
+        <v>62243.56086507648</v>
       </c>
       <c r="W139" t="n">
-        <v>36157.57076009278</v>
+        <v>36670.42221417749</v>
       </c>
       <c r="X139" t="n">
         <v>8826.01397101216</v>
       </c>
       <c r="Y139" t="n">
-        <v>35827.47900549276</v>
+        <v>35453.93543658295</v>
       </c>
       <c r="Z139" t="n">
-        <v>52478.08973447925</v>
+        <v>52254.79354097672</v>
       </c>
       <c r="AA139" t="n">
         <v>9104.28247724012</v>
       </c>
       <c r="AB139" t="n">
-        <v>7020.701768499523</v>
+        <v>6580.923266696163</v>
       </c>
       <c r="AC139" t="n">
         <v>0</v>
       </c>
       <c r="AD139" t="n">
-        <v>4147.644905675555</v>
+        <v>5331.079468511591</v>
       </c>
       <c r="AE139" t="n">
         <v>4394.56712655699</v>
       </c>
       <c r="AF139" t="n">
-        <v>267782.0204783038</v>
+        <v>268640.1248720665</v>
       </c>
     </row>
     <row r="140">
@@ -8896,37 +8896,37 @@
         <v>383974.12</v>
       </c>
       <c r="F140" t="n">
-        <v>418379.31</v>
+        <v>419859.31</v>
       </c>
       <c r="G140" t="n">
-        <v>269259.19</v>
+        <v>273084.19</v>
       </c>
       <c r="H140" t="n">
         <v>64072.06</v>
       </c>
       <c r="I140" t="n">
-        <v>292732.55</v>
+        <v>289946.55</v>
       </c>
       <c r="J140" t="n">
-        <v>396917.14</v>
+        <v>395868.14</v>
       </c>
       <c r="K140" t="n">
         <v>52676.73</v>
       </c>
       <c r="L140" t="n">
-        <v>24522.5</v>
+        <v>21242.5</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>32256</v>
+        <v>40366</v>
       </c>
       <c r="O140" t="n">
         <v>33204</v>
       </c>
       <c r="P140" t="n">
-        <v>1981060.6</v>
+        <v>1987360.6</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr">
@@ -8946,37 +8946,37 @@
         <v>51482.79366611694</v>
       </c>
       <c r="V140" t="n">
-        <v>56095.80065162302</v>
+        <v>56294.23729268063</v>
       </c>
       <c r="W140" t="n">
-        <v>36101.95218749581</v>
+        <v>36614.80364158052</v>
       </c>
       <c r="X140" t="n">
         <v>8590.705656785056</v>
       </c>
       <c r="Y140" t="n">
-        <v>39249.23239880401</v>
+        <v>38875.68882989421</v>
       </c>
       <c r="Z140" t="n">
-        <v>53218.17840526661</v>
+        <v>53077.52973197645</v>
       </c>
       <c r="AA140" t="n">
         <v>7062.833353445154</v>
       </c>
       <c r="AB140" t="n">
-        <v>3287.94765563198</v>
+        <v>2848.16915382862</v>
       </c>
       <c r="AC140" t="n">
         <v>0</v>
       </c>
       <c r="AD140" t="n">
-        <v>4324.846144563774</v>
+        <v>5412.225306034887</v>
       </c>
       <c r="AE140" t="n">
         <v>4451.952857889867</v>
       </c>
       <c r="AF140" t="n">
-        <v>265618.2508078248</v>
+        <v>266462.9473204349</v>
       </c>
     </row>
     <row r="141">
@@ -10028,10 +10028,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>47124.5</v>
+        <v>45699.5</v>
       </c>
       <c r="G152" t="n">
-        <v>31825</v>
+        <v>35650</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>80085</v>
       </c>
       <c r="J152" t="n">
-        <v>4545</v>
+        <v>3550</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -10052,13 +10052,13 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="O152" t="n">
         <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>163579.5</v>
+        <v>165979.5</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
@@ -10074,10 +10074,10 @@
         <v>0</v>
       </c>
       <c r="V152" t="n">
-        <v>6318.396953729402</v>
+        <v>6127.334647305685</v>
       </c>
       <c r="W152" t="n">
-        <v>4267.05817679632</v>
+        <v>4779.909630881031</v>
       </c>
       <c r="X152" t="n">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>10737.70162101283</v>
       </c>
       <c r="Z152" t="n">
-        <v>609.3881983830095</v>
+        <v>475.9797809152219</v>
       </c>
       <c r="AA152" t="n">
         <v>0</v>
@@ -10098,13 +10098,13 @@
         <v>0</v>
       </c>
       <c r="AD152" t="n">
-        <v>0</v>
+        <v>133.4084174677876</v>
       </c>
       <c r="AE152" t="n">
         <v>0</v>
       </c>
       <c r="AF152" t="n">
-        <v>21932.54494992156</v>
+        <v>22254.33409758256</v>
       </c>
     </row>
     <row r="153">
@@ -10140,13 +10140,13 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>9605</v>
+        <v>6060</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>3545</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -10186,13 +10186,13 @@
         <v>0</v>
       </c>
       <c r="AB153" t="n">
-        <v>1287.826984701607</v>
+        <v>812.5175978440126</v>
       </c>
       <c r="AC153" t="n">
         <v>0</v>
       </c>
       <c r="AD153" t="n">
-        <v>0</v>
+        <v>475.3093868575948</v>
       </c>
       <c r="AE153" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>33757.5</v>
+        <v>36662.5</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -10695,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>2786</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>24206.81</v>
+        <v>26312.81</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -10710,13 +10710,13 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>275</v>
+        <v>1950</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
       </c>
       <c r="P159" t="n">
-        <v>61025.31</v>
+        <v>64925.31</v>
       </c>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="V159" t="n">
-        <v>4526.165480069184</v>
+        <v>4915.664427550513</v>
       </c>
       <c r="W159" t="n">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>373.5435689098051</v>
+        <v>0</v>
       </c>
       <c r="Z159" t="n">
-        <v>3245.620315621522</v>
+        <v>3527.990292694045</v>
       </c>
       <c r="AA159" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="AD159" t="n">
-        <v>36.87167316948902</v>
+        <v>261.4536824745585</v>
       </c>
       <c r="AE159" t="n">
         <v>0</v>
       </c>
       <c r="AF159" t="n">
-        <v>8182.20103777</v>
+        <v>8705.108402719117</v>
       </c>
     </row>
     <row r="160">
@@ -10792,19 +10792,19 @@
         <v>12941</v>
       </c>
       <c r="J160" t="n">
-        <v>44722.86</v>
+        <v>44322.86</v>
       </c>
       <c r="K160" t="n">
         <v>200</v>
       </c>
       <c r="L160" t="n">
-        <v>3390</v>
+        <v>1895</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>1895</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
@@ -10838,19 +10838,19 @@
         <v>1735.113899950391</v>
       </c>
       <c r="Z160" t="n">
-        <v>5996.387916817504</v>
+        <v>5942.756392207339</v>
       </c>
       <c r="AA160" t="n">
         <v>26.81576230508292</v>
       </c>
       <c r="AB160" t="n">
-        <v>454.5271710711556</v>
+        <v>254.0793478406607</v>
       </c>
       <c r="AC160" t="n">
         <v>0</v>
       </c>
       <c r="AD160" t="n">
-        <v>0</v>
+        <v>254.0793478406607</v>
       </c>
       <c r="AE160" t="n">
         <v>0</v>
@@ -11450,13 +11450,13 @@
         <v>17605</v>
       </c>
       <c r="J167" t="n">
-        <v>31159.5</v>
+        <v>29399.5</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -11496,13 +11496,13 @@
         <v>2360.457476904925</v>
       </c>
       <c r="Z167" t="n">
-        <v>4177.828727726157</v>
+        <v>3941.850019441427</v>
       </c>
       <c r="AA167" t="n">
         <v>0</v>
       </c>
       <c r="AB167" t="n">
-        <v>0</v>
+        <v>235.9787082847297</v>
       </c>
       <c r="AC167" t="n">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>-25520.46333333333</v>
       </c>
       <c r="J170" t="n">
-        <v>-5519.803333333333</v>
+        <v>-6136.213333333334</v>
       </c>
       <c r="K170" t="n">
         <v>15225.74</v>
@@ -11748,13 +11748,13 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>-1321.62</v>
+        <v>-605.2099999999998</v>
       </c>
       <c r="O170" t="n">
         <v>-428</v>
       </c>
       <c r="P170" t="n">
-        <v>16138.04333333334</v>
+        <v>16238.04333333334</v>
       </c>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr">
@@ -11786,7 +11786,7 @@
         <v>-3421.753393311254</v>
       </c>
       <c r="Z170" t="n">
-        <v>-740.0886707873553</v>
+        <v>-822.7361909997363</v>
       </c>
       <c r="AA170" t="n">
         <v>2041.449123794966</v>
@@ -11798,13 +11798,13 @@
         <v>0</v>
       </c>
       <c r="AD170" t="n">
-        <v>-177.2012388882185</v>
+        <v>-81.14583752329615</v>
       </c>
       <c r="AE170" t="n">
         <v>-57.38573133287746</v>
       </c>
       <c r="AF170" t="n">
-        <v>2163.769670478975</v>
+        <v>2177.177551631517</v>
       </c>
     </row>
     <row r="171">
@@ -12880,13 +12880,13 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O182" t="n">
         <v>0</v>
       </c>
       <c r="P182" t="n">
-        <v>27030</v>
+        <v>27130</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
@@ -12926,13 +12926,13 @@
         <v>0</v>
       </c>
       <c r="AD182" t="n">
-        <v>0</v>
+        <v>13.40788115254146</v>
       </c>
       <c r="AE182" t="n">
         <v>0</v>
       </c>
       <c r="AF182" t="n">
-        <v>3624.150275531957</v>
+        <v>3637.558156684498</v>
       </c>
     </row>
     <row r="183">
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2242.94</v>
+        <v>1626.53</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
@@ -13632,13 +13632,13 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>616.4100000000001</v>
       </c>
       <c r="O190" t="n">
         <v>0</v>
       </c>
       <c r="P190" t="n">
-        <v>-2591.4</v>
+        <v>-2591.400000000001</v>
       </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="Z190" t="n">
-        <v>300.7307295228135</v>
+        <v>218.0832093104326</v>
       </c>
       <c r="AA190" t="n">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="AD190" t="n">
-        <v>0</v>
+        <v>82.64752021238084</v>
       </c>
       <c r="AE190" t="n">
         <v>0</v>
@@ -14806,37 +14806,37 @@
         <v>343939.54</v>
       </c>
       <c r="F204" t="n">
-        <v>462751.15</v>
+        <v>464231.15</v>
       </c>
       <c r="G204" t="n">
-        <v>269674.01</v>
+        <v>273499.01</v>
       </c>
       <c r="H204" t="n">
         <v>65827.06</v>
       </c>
       <c r="I204" t="n">
-        <v>267212.0866666667</v>
+        <v>264426.0866666667</v>
       </c>
       <c r="J204" t="n">
-        <v>391397.3366666667</v>
+        <v>389731.9266666667</v>
       </c>
       <c r="K204" t="n">
         <v>67902.47</v>
       </c>
       <c r="L204" t="n">
-        <v>52362.5</v>
+        <v>49082.5</v>
       </c>
       <c r="M204" t="n">
         <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>30934.38</v>
+        <v>39760.79</v>
       </c>
       <c r="O204" t="n">
         <v>32776</v>
       </c>
       <c r="P204" t="n">
-        <v>1997198.643333333</v>
+        <v>2003598.643333334</v>
       </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr">
@@ -14852,37 +14852,37 @@
         <v>46115.0047597978</v>
       </c>
       <c r="V204" t="n">
-        <v>62045.12422401887</v>
+        <v>62243.56086507648</v>
       </c>
       <c r="W204" t="n">
-        <v>36157.57076009278</v>
+        <v>36670.42221417749</v>
       </c>
       <c r="X204" t="n">
         <v>8826.01397101216</v>
       </c>
       <c r="Y204" t="n">
-        <v>35827.47900549277</v>
+        <v>35453.93543658296</v>
       </c>
       <c r="Z204" t="n">
-        <v>52478.08973447925</v>
+        <v>52254.79354097672</v>
       </c>
       <c r="AA204" t="n">
         <v>9104.28247724012</v>
       </c>
       <c r="AB204" t="n">
-        <v>7020.701768499523</v>
+        <v>6580.923266696163</v>
       </c>
       <c r="AC204" t="n">
         <v>0</v>
       </c>
       <c r="AD204" t="n">
-        <v>4147.644905675555</v>
+        <v>5331.079468511591</v>
       </c>
       <c r="AE204" t="n">
         <v>4394.56712655699</v>
       </c>
       <c r="AF204" t="n">
-        <v>267782.0204783038</v>
+        <v>268640.1248720665</v>
       </c>
     </row>
     <row r="205">
@@ -15932,10 +15932,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>47124.5</v>
+        <v>45699.5</v>
       </c>
       <c r="G216" t="n">
-        <v>31855</v>
+        <v>35680</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -15944,7 +15944,7 @@
         <v>80085</v>
       </c>
       <c r="J216" t="n">
-        <v>4545</v>
+        <v>3550</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -15956,13 +15956,13 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
       </c>
       <c r="P216" t="n">
-        <v>190609.5</v>
+        <v>193109.5</v>
       </c>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr">
@@ -15978,10 +15978,10 @@
         <v>0</v>
       </c>
       <c r="V216" t="n">
-        <v>6318.396953729402</v>
+        <v>6127.334647305685</v>
       </c>
       <c r="W216" t="n">
-        <v>4271.080541142082</v>
+        <v>4783.931995226793</v>
       </c>
       <c r="X216" t="n">
         <v>0</v>
@@ -15990,7 +15990,7 @@
         <v>10737.70162101283</v>
       </c>
       <c r="Z216" t="n">
-        <v>609.3881983830095</v>
+        <v>475.9797809152219</v>
       </c>
       <c r="AA216" t="n">
         <v>0</v>
@@ -16002,13 +16002,13 @@
         <v>0</v>
       </c>
       <c r="AD216" t="n">
-        <v>0</v>
+        <v>146.816298620329</v>
       </c>
       <c r="AE216" t="n">
         <v>0</v>
       </c>
       <c r="AF216" t="n">
-        <v>25556.69522545352</v>
+        <v>25891.89225426706</v>
       </c>
     </row>
     <row r="217">
@@ -16044,13 +16044,13 @@
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>9605</v>
+        <v>6060</v>
       </c>
       <c r="M217" t="n">
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>0</v>
+        <v>3545</v>
       </c>
       <c r="O217" t="n">
         <v>0</v>
@@ -16090,13 +16090,13 @@
         <v>0</v>
       </c>
       <c r="AB217" t="n">
-        <v>1287.826984701607</v>
+        <v>812.5175978440126</v>
       </c>
       <c r="AC217" t="n">
         <v>0</v>
       </c>
       <c r="AD217" t="n">
-        <v>0</v>
+        <v>475.3093868575948</v>
       </c>
       <c r="AE217" t="n">
         <v>0</v>
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>33757.5</v>
+        <v>36662.5</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -16599,10 +16599,10 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>2786</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>24206.81</v>
+        <v>26312.81</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -16614,13 +16614,13 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>275</v>
+        <v>1950</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>61025.31</v>
+        <v>64925.31</v>
       </c>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr">
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="V223" t="n">
-        <v>4526.165480069184</v>
+        <v>4915.664427550513</v>
       </c>
       <c r="W223" t="n">
         <v>0</v>
@@ -16645,10 +16645,10 @@
         <v>0</v>
       </c>
       <c r="Y223" t="n">
-        <v>373.5435689098051</v>
+        <v>0</v>
       </c>
       <c r="Z223" t="n">
-        <v>3245.620315621522</v>
+        <v>3527.990292694045</v>
       </c>
       <c r="AA223" t="n">
         <v>0</v>
@@ -16660,13 +16660,13 @@
         <v>0</v>
       </c>
       <c r="AD223" t="n">
-        <v>36.87167316948902</v>
+        <v>261.4536824745585</v>
       </c>
       <c r="AE223" t="n">
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>8182.20103777</v>
+        <v>8705.108402719117</v>
       </c>
     </row>
     <row r="224">
@@ -16696,19 +16696,19 @@
         <v>12941</v>
       </c>
       <c r="J224" t="n">
-        <v>46965.8</v>
+        <v>45949.39</v>
       </c>
       <c r="K224" t="n">
         <v>200</v>
       </c>
       <c r="L224" t="n">
-        <v>3390</v>
+        <v>1895</v>
       </c>
       <c r="M224" t="n">
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0</v>
+        <v>2511.41</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
@@ -16742,19 +16742,19 @@
         <v>1735.113899950391</v>
       </c>
       <c r="Z224" t="n">
-        <v>6297.118646340318</v>
+        <v>6160.839601517771</v>
       </c>
       <c r="AA224" t="n">
         <v>26.81576230508292</v>
       </c>
       <c r="AB224" t="n">
-        <v>454.5271710711556</v>
+        <v>254.0793478406607</v>
       </c>
       <c r="AC224" t="n">
         <v>0</v>
       </c>
       <c r="AD224" t="n">
-        <v>0</v>
+        <v>336.7268680530415</v>
       </c>
       <c r="AE224" t="n">
         <v>0</v>
@@ -17354,13 +17354,13 @@
         <v>17605</v>
       </c>
       <c r="J231" t="n">
-        <v>32373.7</v>
+        <v>30613.7</v>
       </c>
       <c r="K231" t="n">
         <v>17000</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -17400,13 +17400,13 @@
         <v>2360.457476904925</v>
       </c>
       <c r="Z231" t="n">
-        <v>4340.627220680315</v>
+        <v>4104.648512395585</v>
       </c>
       <c r="AA231" t="n">
         <v>2279.339795932049</v>
       </c>
       <c r="AB231" t="n">
-        <v>0</v>
+        <v>235.9787082847297</v>
       </c>
       <c r="AC231" t="n">
         <v>0</v>
@@ -17980,7 +17980,7 @@
         <v>54</v>
       </c>
       <c r="J242" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K242" t="n">
         <v>48</v>
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O242" t="n">
         <v>1</v>
@@ -18048,7 +18048,7 @@
         <v>49</v>
       </c>
       <c r="J243" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K243" t="n">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O243" t="n">
         <v>1</v>
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255" t="n">
         <v>0</v>
@@ -19264,19 +19264,19 @@
         <v>0</v>
       </c>
       <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
         <v>3</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" t="n">
-        <v>1</v>
       </c>
       <c r="O262" t="n">
         <v>0</v>
@@ -19328,19 +19328,19 @@
         <v>5</v>
       </c>
       <c r="J263" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K263" t="n">
         <v>1</v>
       </c>
       <c r="L263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M263" t="n">
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O263" t="n">
         <v>0</v>
@@ -19776,13 +19776,13 @@
         <v>2</v>
       </c>
       <c r="J270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
       </c>
       <c r="L270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M270" t="n">
         <v>0</v>
@@ -19972,7 +19972,7 @@
         <v>5</v>
       </c>
       <c r="J273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K273" t="n">
         <v>5</v>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O273" t="n">
         <v>0</v>
@@ -21252,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O293" t="n">
         <v>0</v>
@@ -22154,19 +22154,19 @@
         <v>63654.67</v>
       </c>
       <c r="J307" t="n">
-        <v>131140.48</v>
+        <v>125694.07</v>
       </c>
       <c r="K307" t="n">
         <v>44675.21</v>
       </c>
       <c r="L307" t="n">
-        <v>8335</v>
+        <v>8600</v>
       </c>
       <c r="M307" t="n">
         <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>18248.38</v>
+        <v>23429.79</v>
       </c>
       <c r="O307" t="n">
         <v>1315</v>
@@ -22204,19 +22204,19 @@
         <v>8534.742501642464</v>
       </c>
       <c r="Z307" t="n">
-        <v>17583.15970127241</v>
+        <v>16852.91152139227</v>
       </c>
       <c r="AA307" t="n">
         <v>5989.999061448319</v>
       </c>
       <c r="AB307" t="n">
-        <v>1117.546894064331</v>
+        <v>1153.077779118566</v>
       </c>
       <c r="AC307" t="n">
         <v>0</v>
       </c>
       <c r="AD307" t="n">
-        <v>2446.721102664146</v>
+        <v>3141.438397490044</v>
       </c>
       <c r="AE307" t="n">
         <v>32776</v>
@@ -22256,19 +22256,19 @@
         <v>88833.55</v>
       </c>
       <c r="J308" t="n">
-        <v>131533.22</v>
+        <v>126703.22</v>
       </c>
       <c r="K308" t="n">
         <v>45495.73</v>
       </c>
       <c r="L308" t="n">
-        <v>8295</v>
+        <v>8560</v>
       </c>
       <c r="M308" t="n">
         <v>0</v>
       </c>
       <c r="N308" t="n">
-        <v>19570</v>
+        <v>24135</v>
       </c>
       <c r="O308" t="n">
         <v>1315</v>
@@ -22306,19 +22306,19 @@
         <v>11910.6968075835</v>
       </c>
       <c r="Z308" t="n">
-        <v>17635.8178137109</v>
+        <v>16988.21715404314</v>
       </c>
       <c r="AA308" t="n">
         <v>6100.013407881152</v>
       </c>
       <c r="AB308" t="n">
-        <v>1112.183741603314</v>
+        <v>1147.714626657549</v>
       </c>
       <c r="AC308" t="n">
         <v>0</v>
       </c>
       <c r="AD308" t="n">
-        <v>2623.922341552364</v>
+        <v>3235.992116165882</v>
       </c>
       <c r="AE308" t="n">
         <v>33204</v>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>3700</v>
+        <v>2705</v>
       </c>
       <c r="K320" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
       <c r="N320" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="O320" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Z320" t="n">
-        <v>496.0916026440341</v>
+        <v>362.6831851762465</v>
       </c>
       <c r="AA320" t="n">
         <v>0</v>
@@ -23446,7 +23446,7 @@
         <v>0</v>
       </c>
       <c r="AD320" t="n">
-        <v>0</v>
+        <v>133.4084174677876</v>
       </c>
       <c r="AE320" t="n">
         <v>0</v>
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="n">
-        <v>2917</v>
+        <v>1242</v>
       </c>
       <c r="K327" t="n">
         <v>0</v>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
       <c r="N327" t="n">
-        <v>275</v>
+        <v>1950</v>
       </c>
       <c r="O327" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Z327" t="n">
-        <v>391.1078932196344</v>
+        <v>166.525883914565</v>
       </c>
       <c r="AA327" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="AD327" t="n">
-        <v>36.87167316948902</v>
+        <v>261.4536824745585</v>
       </c>
       <c r="AE327" t="n">
         <v>0</v>
@@ -24140,19 +24140,19 @@
         <v>8061</v>
       </c>
       <c r="J328" t="n">
-        <v>19671</v>
+        <v>19271</v>
       </c>
       <c r="K328" t="n">
         <v>200</v>
       </c>
       <c r="L328" t="n">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="M328" t="n">
         <v>0</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>1895</v>
       </c>
       <c r="O328" t="n">
         <v>0</v>
@@ -24186,19 +24186,19 @@
         <v>1080.809299706367</v>
       </c>
       <c r="Z328" t="n">
-        <v>2637.464301516431</v>
+        <v>2583.832776906265</v>
       </c>
       <c r="AA328" t="n">
         <v>26.81576230508292</v>
       </c>
       <c r="AB328" t="n">
-        <v>200.4478232304949</v>
+        <v>0</v>
       </c>
       <c r="AC328" t="n">
         <v>0</v>
       </c>
       <c r="AD328" t="n">
-        <v>0</v>
+        <v>254.0793478406607</v>
       </c>
       <c r="AE328" t="n">
         <v>0</v>
@@ -24798,13 +24798,13 @@
         <v>11990</v>
       </c>
       <c r="J335" t="n">
-        <v>4799</v>
+        <v>3039</v>
       </c>
       <c r="K335" t="n">
         <v>0</v>
       </c>
       <c r="L335" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="M335" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>1607.604950189721</v>
       </c>
       <c r="Z335" t="n">
-        <v>643.4442165104648</v>
+        <v>407.4655082257351</v>
       </c>
       <c r="AA335" t="n">
         <v>0</v>
       </c>
       <c r="AB335" t="n">
-        <v>0</v>
+        <v>235.9787082847297</v>
       </c>
       <c r="AC335" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>-25178.88</v>
       </c>
       <c r="J338" t="n">
-        <v>-392.7399999999997</v>
+        <v>-1009.15</v>
       </c>
       <c r="K338" t="n">
         <v>-820.52</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="N338" t="n">
-        <v>-1321.62</v>
+        <v>-705.2099999999998</v>
       </c>
       <c r="O338" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>-3375.954305941032</v>
       </c>
       <c r="Z338" t="n">
-        <v>-52.65811243849129</v>
+        <v>-135.3056326508722</v>
       </c>
       <c r="AA338" t="n">
         <v>-110.0143464328332</v>
@@ -25146,7 +25146,7 @@
         <v>0</v>
       </c>
       <c r="AD338" t="n">
-        <v>-177.2012388882185</v>
+        <v>-94.55371867583762</v>
       </c>
       <c r="AE338" t="n">
         <v>-428</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="n">
-        <v>2242.94</v>
+        <v>1626.53</v>
       </c>
       <c r="K358" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="N358" t="n">
-        <v>0</v>
+        <v>616.4100000000001</v>
       </c>
       <c r="O358" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="Z358" t="n">
-        <v>300.7307295228135</v>
+        <v>218.0832093104326</v>
       </c>
       <c r="AA358" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="AD358" t="n">
-        <v>0</v>
+        <v>82.64752021238084</v>
       </c>
       <c r="AE358" t="n">
         <v>0</v>
@@ -28166,19 +28166,19 @@
         <v>63654.67</v>
       </c>
       <c r="J372" t="n">
-        <v>131140.48</v>
+        <v>125694.07</v>
       </c>
       <c r="K372" t="n">
         <v>44675.21</v>
       </c>
       <c r="L372" t="n">
-        <v>8335</v>
+        <v>8600</v>
       </c>
       <c r="M372" t="n">
         <v>0</v>
       </c>
       <c r="N372" t="n">
-        <v>18248.38</v>
+        <v>23429.79</v>
       </c>
       <c r="O372" t="n">
         <v>1315</v>
@@ -28212,25 +28212,25 @@
         <v>8534.742501642464</v>
       </c>
       <c r="Z372" t="n">
-        <v>17583.15970127241</v>
+        <v>16852.91152139227</v>
       </c>
       <c r="AA372" t="n">
         <v>5989.999061448319</v>
       </c>
       <c r="AB372" t="n">
-        <v>1117.546894064331</v>
+        <v>1153.077779118566</v>
       </c>
       <c r="AC372" t="n">
         <v>0</v>
       </c>
       <c r="AD372" t="n">
-        <v>2446.721102664146</v>
+        <v>3141.438397490044</v>
       </c>
       <c r="AE372" t="n">
         <v>176.3136371559202</v>
       </c>
       <c r="AF372" t="n">
-        <v>61242.73851503247</v>
+        <v>61242.73851503246</v>
       </c>
     </row>
     <row r="373">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="n">
-        <v>3700</v>
+        <v>2705</v>
       </c>
       <c r="K384" t="n">
         <v>0</v>
@@ -29304,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="N384" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="O384" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="Z384" t="n">
-        <v>496.0916026440341</v>
+        <v>362.6831851762465</v>
       </c>
       <c r="AA384" t="n">
         <v>0</v>
@@ -29350,7 +29350,7 @@
         <v>0</v>
       </c>
       <c r="AD384" t="n">
-        <v>0</v>
+        <v>133.4084174677876</v>
       </c>
       <c r="AE384" t="n">
         <v>0</v>
@@ -29950,7 +29950,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2917</v>
+        <v>1242</v>
       </c>
       <c r="K391" t="n">
         <v>0</v>
@@ -29962,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="N391" t="n">
-        <v>275</v>
+        <v>1950</v>
       </c>
       <c r="O391" t="n">
         <v>0</v>
@@ -29996,7 +29996,7 @@
         <v>0</v>
       </c>
       <c r="Z391" t="n">
-        <v>391.1078932196344</v>
+        <v>166.525883914565</v>
       </c>
       <c r="AA391" t="n">
         <v>0</v>
@@ -30008,7 +30008,7 @@
         <v>0</v>
       </c>
       <c r="AD391" t="n">
-        <v>36.87167316948902</v>
+        <v>261.4536824745585</v>
       </c>
       <c r="AE391" t="n">
         <v>0</v>
@@ -30044,19 +30044,19 @@
         <v>8061</v>
       </c>
       <c r="J392" t="n">
-        <v>21913.94</v>
+        <v>20897.53</v>
       </c>
       <c r="K392" t="n">
         <v>200</v>
       </c>
       <c r="L392" t="n">
-        <v>1495</v>
+        <v>0</v>
       </c>
       <c r="M392" t="n">
         <v>0</v>
       </c>
       <c r="N392" t="n">
-        <v>0</v>
+        <v>2511.41</v>
       </c>
       <c r="O392" t="n">
         <v>0</v>
@@ -30090,19 +30090,19 @@
         <v>1080.809299706367</v>
       </c>
       <c r="Z392" t="n">
-        <v>2938.195031039244</v>
+        <v>2801.915986216698</v>
       </c>
       <c r="AA392" t="n">
         <v>26.81576230508292</v>
       </c>
       <c r="AB392" t="n">
-        <v>200.4478232304949</v>
+        <v>0</v>
       </c>
       <c r="AC392" t="n">
         <v>0</v>
       </c>
       <c r="AD392" t="n">
-        <v>0</v>
+        <v>336.7268680530415</v>
       </c>
       <c r="AE392" t="n">
         <v>0</v>
@@ -30702,13 +30702,13 @@
         <v>11990</v>
       </c>
       <c r="J399" t="n">
-        <v>6299</v>
+        <v>4539</v>
       </c>
       <c r="K399" t="n">
         <v>0</v>
       </c>
       <c r="L399" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="M399" t="n">
         <v>0</v>
@@ -30748,13 +30748,13 @@
         <v>1607.604950189721</v>
       </c>
       <c r="Z399" t="n">
-        <v>844.5624337985867</v>
+        <v>608.583725513857</v>
       </c>
       <c r="AA399" t="n">
         <v>0</v>
       </c>
       <c r="AB399" t="n">
-        <v>0</v>
+        <v>235.9787082847297</v>
       </c>
       <c r="AC399" t="n">
         <v>0</v>
@@ -31325,22 +31325,22 @@
         <v>26</v>
       </c>
       <c r="I410" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J410" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K410" t="n">
         <v>14</v>
       </c>
       <c r="L410" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M410" t="n">
         <v>0</v>
       </c>
       <c r="N410" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O410" t="n">
         <v>7</v>
@@ -31393,22 +31393,22 @@
         <v>26</v>
       </c>
       <c r="I411" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J411" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K411" t="n">
         <v>8</v>
       </c>
       <c r="L411" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M411" t="n">
         <v>0</v>
       </c>
       <c r="N411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O411" t="n">
         <v>5</v>
@@ -32234,13 +32234,13 @@
         <v>0</v>
       </c>
       <c r="L424" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M424" t="n">
         <v>0</v>
       </c>
       <c r="N424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O424" t="n">
         <v>0</v>
@@ -32609,10 +32609,10 @@
         <v>0</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J430" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K430" t="n">
         <v>0</v>
@@ -35499,22 +35499,22 @@
         <v>22246.5</v>
       </c>
       <c r="I475" t="n">
-        <v>50235.16666666666</v>
+        <v>47449.16666666666</v>
       </c>
       <c r="J475" t="n">
-        <v>131218.1033333333</v>
+        <v>134004.1033333333</v>
       </c>
       <c r="K475" t="n">
         <v>23227.26</v>
       </c>
       <c r="L475" t="n">
-        <v>35950</v>
+        <v>32405</v>
       </c>
       <c r="M475" t="n">
         <v>0</v>
       </c>
       <c r="N475" t="n">
-        <v>1495</v>
+        <v>5040</v>
       </c>
       <c r="O475" t="n">
         <v>2048</v>
@@ -35549,22 +35549,22 @@
         <v>2982.784280600136</v>
       </c>
       <c r="Y475" t="n">
-        <v>6735.471443447791</v>
+        <v>6361.927874537985</v>
       </c>
       <c r="Z475" t="n">
-        <v>17593.56734555238</v>
+        <v>17967.11091446218</v>
       </c>
       <c r="AA475" t="n">
         <v>3114.283415791802</v>
       </c>
       <c r="AB475" t="n">
-        <v>4820.133274338656</v>
+        <v>4344.82388748106</v>
       </c>
       <c r="AC475" t="n">
         <v>0</v>
       </c>
       <c r="AD475" t="n">
-        <v>200.4478232304949</v>
+        <v>675.7572100880897</v>
       </c>
       <c r="AE475" t="n">
         <v>32776</v>
@@ -35601,22 +35601,22 @@
         <v>22246.5</v>
       </c>
       <c r="I476" t="n">
-        <v>50554</v>
+        <v>47768</v>
       </c>
       <c r="J476" t="n">
-        <v>134610.17</v>
+        <v>137396.17</v>
       </c>
       <c r="K476" t="n">
         <v>7181</v>
       </c>
       <c r="L476" t="n">
-        <v>8950</v>
+        <v>5405</v>
       </c>
       <c r="M476" t="n">
         <v>0</v>
       </c>
       <c r="N476" t="n">
-        <v>1495</v>
+        <v>5040</v>
       </c>
       <c r="O476" t="n">
         <v>2476</v>
@@ -35651,22 +35651,22 @@
         <v>2982.784280600136</v>
       </c>
       <c r="Y476" t="n">
-        <v>6778.22023785581</v>
+        <v>6404.676668946006</v>
       </c>
       <c r="Z476" t="n">
-        <v>18048.37161283402</v>
+        <v>18421.91518174383</v>
       </c>
       <c r="AA476" t="n">
         <v>962.8199455640024</v>
       </c>
       <c r="AB476" t="n">
-        <v>1200.005363152461</v>
+        <v>724.695976294866</v>
       </c>
       <c r="AC476" t="n">
         <v>0</v>
       </c>
       <c r="AD476" t="n">
-        <v>200.4478232304949</v>
+        <v>675.7572100880897</v>
       </c>
       <c r="AE476" t="n">
         <v>33204</v>
@@ -36836,13 +36836,13 @@
         <v>0</v>
       </c>
       <c r="L489" t="n">
-        <v>7055</v>
+        <v>3510</v>
       </c>
       <c r="M489" t="n">
         <v>0</v>
       </c>
       <c r="N489" t="n">
-        <v>0</v>
+        <v>3545</v>
       </c>
       <c r="O489" t="n">
         <v>0</v>
@@ -36882,13 +36882,13 @@
         <v>0</v>
       </c>
       <c r="AB489" t="n">
-        <v>945.9260153118001</v>
+        <v>470.6166284542053</v>
       </c>
       <c r="AC489" t="n">
         <v>0</v>
       </c>
       <c r="AD489" t="n">
-        <v>0</v>
+        <v>475.3093868575948</v>
       </c>
       <c r="AE489" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="I495" t="n">
-        <v>2786</v>
+        <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>14438.31</v>
+        <v>17224.31</v>
       </c>
       <c r="K495" t="n">
         <v>0</v>
@@ -37437,10 +37437,10 @@
         <v>0</v>
       </c>
       <c r="Y495" t="n">
-        <v>373.5435689098051</v>
+        <v>0</v>
       </c>
       <c r="Z495" t="n">
-        <v>1935.871445235509</v>
+        <v>2309.415014145314</v>
       </c>
       <c r="AA495" t="n">
         <v>0</v>
@@ -41511,22 +41511,22 @@
         <v>22246.5</v>
       </c>
       <c r="I540" t="n">
-        <v>50235.16666666666</v>
+        <v>47449.16666666666</v>
       </c>
       <c r="J540" t="n">
-        <v>131218.1033333333</v>
+        <v>134004.1033333333</v>
       </c>
       <c r="K540" t="n">
         <v>23227.26</v>
       </c>
       <c r="L540" t="n">
-        <v>35950</v>
+        <v>32405</v>
       </c>
       <c r="M540" t="n">
         <v>0</v>
       </c>
       <c r="N540" t="n">
-        <v>1495</v>
+        <v>5040</v>
       </c>
       <c r="O540" t="n">
         <v>2048</v>
@@ -41557,22 +41557,22 @@
         <v>2982.784280600136</v>
       </c>
       <c r="Y540" t="n">
-        <v>6735.471443447791</v>
+        <v>6361.927874537985</v>
       </c>
       <c r="Z540" t="n">
-        <v>17593.56734555238</v>
+        <v>17967.11091446218</v>
       </c>
       <c r="AA540" t="n">
         <v>3114.283415791802</v>
       </c>
       <c r="AB540" t="n">
-        <v>4820.133274338656</v>
+        <v>4344.82388748106</v>
       </c>
       <c r="AC540" t="n">
         <v>0</v>
       </c>
       <c r="AD540" t="n">
-        <v>200.4478232304949</v>
+        <v>675.7572100880897</v>
       </c>
       <c r="AE540" t="n">
         <v>274.5934060040491</v>
@@ -42740,13 +42740,13 @@
         <v>0</v>
       </c>
       <c r="L553" t="n">
-        <v>7055</v>
+        <v>3510</v>
       </c>
       <c r="M553" t="n">
         <v>0</v>
       </c>
       <c r="N553" t="n">
-        <v>0</v>
+        <v>3545</v>
       </c>
       <c r="O553" t="n">
         <v>0</v>
@@ -42786,13 +42786,13 @@
         <v>0</v>
       </c>
       <c r="AB553" t="n">
-        <v>945.9260153118001</v>
+        <v>470.6166284542053</v>
       </c>
       <c r="AC553" t="n">
         <v>0</v>
       </c>
       <c r="AD553" t="n">
-        <v>0</v>
+        <v>475.3093868575948</v>
       </c>
       <c r="AE553" t="n">
         <v>0</v>
@@ -43295,10 +43295,10 @@
         <v>0</v>
       </c>
       <c r="I559" t="n">
-        <v>2786</v>
+        <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>14438.31</v>
+        <v>17224.31</v>
       </c>
       <c r="K559" t="n">
         <v>0</v>
@@ -43341,10 +43341,10 @@
         <v>0</v>
       </c>
       <c r="Y559" t="n">
-        <v>373.5435689098051</v>
+        <v>0</v>
       </c>
       <c r="Z559" t="n">
-        <v>1935.871445235509</v>
+        <v>2309.415014145314</v>
       </c>
       <c r="AA559" t="n">
         <v>0</v>
